--- a/ihris-backend/file/sampleInput.xlsx
+++ b/ihris-backend/file/sampleInput.xlsx
@@ -6727,7 +6727,7 @@
   </sheetPr>
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>

--- a/ihris-backend/file/sampleInput.xlsx
+++ b/ihris-backend/file/sampleInput.xlsx
@@ -117,19 +117,19 @@
     <t xml:space="preserve">Mr</t>
   </si>
   <si>
-    <t xml:space="preserve">Marsha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tinka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tink Marsha</t>
+    <t xml:space="preserve">Jabar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeremy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabar Jeremy</t>
   </si>
   <si>
     <t xml:space="preserve">Male</t>
   </si>
   <si>
-    <t xml:space="preserve">s</t>
+    <t xml:space="preserve">S</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda</t>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">+25678078909</t>
   </si>
   <si>
-    <t xml:space="preserve">nobertTest@gmail.com</t>
+    <t xml:space="preserve">jabajnan8@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Mubende</t>
@@ -6728,7 +6728,7 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6930,7 +6930,7 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="nobertTest@gmail.com"/>
+    <hyperlink ref="K2" r:id="rId1" display="jabajnan8@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
